--- a/datasets/Brasileirao/match_history/teams/csa.xlsx
+++ b/datasets/Brasileirao/match_history/teams/csa.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2019-04-28</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>43583</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -578,12 +590,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>1642</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1935924699078839</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2019-05-01</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>43586</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -640,12 +656,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>1639</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.194174119355542</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2019-05-05</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>43590</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -704,12 +724,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>1635</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1949523712991825</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2019-05-12</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>43597</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -768,12 +792,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>1628</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1963218253956815</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2019-05-19</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>43604</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -832,12 +860,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>1621</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1977008993009057</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2019-05-27</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>43612</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -896,12 +928,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>1613</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1992888498283624</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2019-06-02</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>43618</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -960,12 +996,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>1607</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.2004881773118026</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2019-06-09</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>43625</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1024,12 +1064,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.2018965179946554</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2019-06-12</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>43628</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1088,12 +1132,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>1597</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.2025031169921865</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2019-07-14</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>43660</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1152,12 +1200,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>1565</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.2090880131732829</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2019-07-20</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>43666</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1216,12 +1268,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>1559</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.2103463123750325</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2019-07-29</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>43675</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1280,12 +1336,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>1550</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.212247973826743</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2019-08-04</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>43681</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1344,12 +1404,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>1544</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.2135252897856346</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2019-08-12</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>43689</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1408,12 +1472,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>1536</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.2152403431705176</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2019-08-18</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>43695</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1472,12 +1540,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>1530</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.2165356673160071</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>43702</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1536,12 +1608,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>1523</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.2180567345113836</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>43708</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1600,12 +1676,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>1517</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.2193690078015048</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2019-09-08</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>43716</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1664,12 +1744,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>1509</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.2211309984291541</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2019-09-15</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>43723</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1728,12 +1812,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>1502</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2226843457910951</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2019-09-22</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>43730</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1792,12 +1880,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>1495</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.2242486047305353</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2019-09-26</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>43734</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1856,12 +1948,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>1491</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.2251473955326743</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2019-09-29</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>43737</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1920,12 +2016,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>1488</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.2258238518964759</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2019-10-06</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>43744</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1984,12 +2084,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>1481</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.227410164476343</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2019-10-09</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>43747</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2048,12 +2152,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>1478</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.2280934193396259</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2019-10-12</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>43750</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2112,12 +2220,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>1475</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.2287787270452224</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2019-10-16</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>43754</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2176,12 +2288,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>1471</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.2296956746259683</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2019-10-21</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>43759</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2240,12 +2356,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>1466</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.2308470289863452</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2019-10-27</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>43765</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2304,12 +2424,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>1460</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.2322362747297588</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2019-10-30</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>43768</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2368,12 +2492,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>1457</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.2329340296630319</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2019-11-03</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>43772</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2432,12 +2560,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>1453</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.2338676317410376</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>43776</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2496,12 +2628,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>1449</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.2348049757061403</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2019-11-10</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>43779</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2560,12 +2696,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>1446</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.2355104483130648</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2019-11-17</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>43786</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2624,12 +2764,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>1439</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.237164804944181</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2019-11-25</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>43794</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2688,12 +2832,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>1431</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.239069732936097</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>43797</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2752,12 +2900,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>1428</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.2397880190253247</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2019-12-01</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>43800</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2816,12 +2968,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>1425</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.2405084632083421</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>43803</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2880,12 +3036,16 @@
           <t>csa</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.2412310719691519</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2019-12-08</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>43807</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2943,6 +3103,12 @@
         <is>
           <t>csa</t>
         </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1418</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.2421979286813109</v>
       </c>
     </row>
   </sheetData>
